--- a/batchResults.xlsx
+++ b/batchResults.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="21">
   <si>
     <t>PMXCrossover</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>KRO A 100</t>
+  </si>
+  <si>
+    <t>KRO C 100</t>
   </si>
 </sst>
 </file>
@@ -416,43 +422,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:L7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="9" width="26.42578125" customWidth="1"/>
-    <col min="11" max="12" width="26.42578125" customWidth="1"/>
+    <col min="3" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="16" width="26.42578125" customWidth="1"/>
+    <col min="17" max="17" width="26.140625" customWidth="1"/>
+    <col min="18" max="174" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:17">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="K1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="K1" s="1"/>
+      <c r="L1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -480,14 +499,32 @@
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="N2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -498,33 +535,51 @@
         <v>4</v>
       </c>
       <c r="D3">
+        <f>AVERAGE(F3,H3,J3,L3,N3,P3)</f>
+        <v>7921.8680308052353</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(G3,I3,K3,M3,O3,Q3)</f>
+        <v>0.36122863972996527</v>
+      </c>
+      <c r="F3">
         <v>437.9617668729399</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>0.27630172320789337</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>563.98616208322562</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0.29967467467467462</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>675.84328942247521</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.37349919656237007</v>
       </c>
-      <c r="K3">
-        <f>AVERAGE(D3,F3,H3)</f>
-        <v>559.26373945954685</v>
-      </c>
       <c r="L3">
-        <f>AVERAGE(E3,G3,I3)</f>
-        <v>0.31649186481497937</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>675.84328942247521</v>
+      </c>
+      <c r="M3">
+        <v>0.37349919656237007</v>
+      </c>
+      <c r="N3">
+        <v>22910.19954719453</v>
+      </c>
+      <c r="O3">
+        <v>0.40585002464898018</v>
+      </c>
+      <c r="P3">
+        <v>22267.374129835767</v>
+      </c>
+      <c r="Q3">
+        <v>0.4385470227235031</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -535,33 +590,51 @@
         <v>4</v>
       </c>
       <c r="D4">
+        <f t="shared" ref="D4:E38" si="0">AVERAGE(F4,H4,J4,L4,N4,P4)</f>
+        <v>7709.574690771783</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.42775343139782568</v>
+      </c>
+      <c r="F4">
         <v>441.48326549431738</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>0.27944543982523873</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>574.78299323301496</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.31909390966225076</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>673.74428561384013</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.47319500354174937</v>
       </c>
-      <c r="K4">
-        <f>AVERAGE(D4,F4,H4)</f>
-        <v>563.33684811372416</v>
-      </c>
       <c r="L4">
-        <f>AVERAGE(E4,G4,I4)</f>
-        <v>0.35724478434307966</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>673.74428561384013</v>
+      </c>
+      <c r="M4">
+        <v>0.47319500354174937</v>
+      </c>
+      <c r="N4">
+        <v>22598.844652479471</v>
+      </c>
+      <c r="O4">
+        <v>0.47387346301590932</v>
+      </c>
+      <c r="P4">
+        <v>21294.848662196215</v>
+      </c>
+      <c r="Q4">
+        <v>0.54771776880005651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -572,33 +645,51 @@
         <v>4</v>
       </c>
       <c r="D5">
+        <f t="shared" si="0"/>
+        <v>7851.114193556783</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.87099702989001149</v>
+      </c>
+      <c r="F5">
         <v>446.55270447874392</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>0.44643095142895195</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>565.55733175594378</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0.50013064381270889</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>694.51147562883057</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>1.0278516223305934</v>
       </c>
-      <c r="K5">
-        <f>AVERAGE(D5,F5,H5)</f>
-        <v>568.87383728783936</v>
-      </c>
       <c r="L5">
-        <f>AVERAGE(E5,G5,I5)</f>
-        <v>0.65813773919075136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>694.51147562883057</v>
+      </c>
+      <c r="M5">
+        <v>1.0278516223305934</v>
+      </c>
+      <c r="N5">
+        <v>22195.451737453343</v>
+      </c>
+      <c r="O5">
+        <v>1.0525777307645621</v>
+      </c>
+      <c r="P5">
+        <v>22510.100436395005</v>
+      </c>
+      <c r="Q5">
+        <v>1.1711396086726602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -609,33 +700,51 @@
         <v>4</v>
       </c>
       <c r="D6">
+        <f t="shared" si="0"/>
+        <v>8308.2103565588823</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.8630034803328549</v>
+      </c>
+      <c r="F6">
         <v>437.04861231084368</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>0.39647429130760203</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>593.12112673513707</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.50675992356779753</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>715.15244331948475</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>1.0215778139913865</v>
       </c>
-      <c r="K6">
-        <f>AVERAGE(D6,F6,H6)</f>
-        <v>581.77406078848855</v>
-      </c>
       <c r="L6">
-        <f>AVERAGE(E6,G6,I6)</f>
-        <v>0.64160400962226205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>715.15244331948475</v>
+      </c>
+      <c r="M6">
+        <v>1.0215778139913865</v>
+      </c>
+      <c r="N6">
+        <v>24117.89988065034</v>
+      </c>
+      <c r="O6">
+        <v>1.0634504545378165</v>
+      </c>
+      <c r="P6">
+        <v>23270.887633018006</v>
+      </c>
+      <c r="Q6">
+        <v>1.1681805846011399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -646,33 +755,51 @@
         <v>4</v>
       </c>
       <c r="D7">
+        <f t="shared" si="0"/>
+        <v>9107.2745489129065</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.84861338817750742</v>
+      </c>
+      <c r="F7">
         <v>457.53625632050068</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>0.36088459902738479</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>604.0161583553089</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>0.50717015562594658</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>740.78556528051206</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>1.0132004264753167</v>
       </c>
-      <c r="K7">
-        <f>AVERAGE(D7,F7,H7)</f>
-        <v>600.77932665210722</v>
-      </c>
       <c r="L7">
-        <f>AVERAGE(E7,G7,I7)</f>
-        <v>0.62708506037621603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>740.78556528051206</v>
+      </c>
+      <c r="M7">
+        <v>1.0132004264753167</v>
+      </c>
+      <c r="N7">
+        <v>26212.334620777481</v>
+      </c>
+      <c r="O7">
+        <v>1.0392068689310157</v>
+      </c>
+      <c r="P7">
+        <v>25888.189127463116</v>
+      </c>
+      <c r="Q7">
+        <v>1.1580178525300646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -683,33 +810,51 @@
         <v>4</v>
       </c>
       <c r="D8">
+        <f t="shared" si="0"/>
+        <v>9027.0799399292428</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.42303322848609298</v>
+      </c>
+      <c r="F8">
         <v>467.77199736840709</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>0.27112623392162716</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>601.93587844969181</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>0.3179368959004556</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>769.35365115320542</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>0.46410217526832781</v>
       </c>
-      <c r="K8">
-        <f>AVERAGE(D8,F8,H8)</f>
-        <v>613.02050899043479</v>
-      </c>
       <c r="L8">
-        <f>AVERAGE(E8,G8,I8)</f>
-        <v>0.35105510169680354</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>769.35365115320542</v>
+      </c>
+      <c r="M8">
+        <v>0.46410217526832781</v>
+      </c>
+      <c r="N8">
+        <v>26463.730762208401</v>
+      </c>
+      <c r="O8">
+        <v>0.47926587301587326</v>
+      </c>
+      <c r="P8">
+        <v>25090.33369924255</v>
+      </c>
+      <c r="Q8">
+        <v>0.54166601754194643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -720,33 +865,51 @@
         <v>4</v>
       </c>
       <c r="D9">
+        <f t="shared" si="0"/>
+        <v>9330.8635024239575</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.41410527280072446</v>
+      </c>
+      <c r="F9">
         <v>479.12318547615882</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>0.26619796624226022</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>627.5273006238649</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>0.31371857797543201</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>798.58086331872391</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>0.452649496234655</v>
       </c>
-      <c r="K9">
-        <f>AVERAGE(D9,F9,H9)</f>
-        <v>635.07711647291592</v>
-      </c>
       <c r="L9">
-        <f>AVERAGE(E9,G9,I9)</f>
-        <v>0.34418868015078247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>798.58086331872391</v>
+      </c>
+      <c r="M9">
+        <v>0.452649496234655</v>
+      </c>
+      <c r="N9">
+        <v>25548.380159929442</v>
+      </c>
+      <c r="O9">
+        <v>0.46268310110753841</v>
+      </c>
+      <c r="P9">
+        <v>27732.988641876833</v>
+      </c>
+      <c r="Q9">
+        <v>0.53673299900980631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -757,33 +920,51 @@
         <v>3</v>
       </c>
       <c r="D10">
+        <f t="shared" si="0"/>
+        <v>12361.618446976485</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.2154460727139398</v>
+      </c>
+      <c r="F10">
         <v>479.2768964214892</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>0.52359563670302767</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>618.32250983236111</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>0.71165838622514843</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>854.60262802650266</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>1.5016651039477509</v>
       </c>
-      <c r="K10">
-        <f>AVERAGE(D10,F10,H10)</f>
-        <v>650.73401142678438</v>
-      </c>
       <c r="L10">
-        <f>AVERAGE(E10,G10,I10)</f>
-        <v>0.91230637562530903</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>854.60262802650266</v>
+      </c>
+      <c r="M10">
+        <v>1.5016651039477509</v>
+      </c>
+      <c r="N10">
+        <v>35257.992084692261</v>
+      </c>
+      <c r="O10">
+        <v>1.5411211368147164</v>
+      </c>
+      <c r="P10">
+        <v>36104.913934859796</v>
+      </c>
+      <c r="Q10">
+        <v>1.512971068645244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -794,33 +975,51 @@
         <v>4</v>
       </c>
       <c r="D11">
+        <f t="shared" si="0"/>
+        <v>9942.1580498409221</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.35338211534831965</v>
+      </c>
+      <c r="F11">
         <v>527.33051716730608</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>0.24975843966968489</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>673.01514206255717</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>0.29206978510212339</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>767.99365383013139</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>0.37173707141504059</v>
       </c>
-      <c r="K11">
-        <f>AVERAGE(D11,F11,H11)</f>
-        <v>656.11310435333155</v>
-      </c>
       <c r="L11">
-        <f>AVERAGE(E11,G11,I11)</f>
-        <v>0.30452176539561626</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>767.99365383013139</v>
+      </c>
+      <c r="M11">
+        <v>0.37173707141504059</v>
+      </c>
+      <c r="N11">
+        <v>29451.493675048983</v>
+      </c>
+      <c r="O11">
+        <v>0.39037753306362344</v>
+      </c>
+      <c r="P11">
+        <v>27465.121657106429</v>
+      </c>
+      <c r="Q11">
+        <v>0.44461279142440496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -831,33 +1030,51 @@
         <v>4</v>
       </c>
       <c r="D12">
+        <f t="shared" si="0"/>
+        <v>11892.885297390414</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1.7230706447361557</v>
+      </c>
+      <c r="F12">
         <v>458.15772177756452</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>0.66201618990603595</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>662.62550150243783</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>0.97847009110043492</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>882.29647637732933</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>2.155995165312647</v>
       </c>
-      <c r="K12">
-        <f>AVERAGE(D12,F12,H12)</f>
-        <v>667.69323321911054</v>
-      </c>
       <c r="L12">
-        <f>AVERAGE(E12,G12,I12)</f>
-        <v>1.265493815439706</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>882.29647637732933</v>
+      </c>
+      <c r="M12">
+        <v>2.155995165312647</v>
+      </c>
+      <c r="N12">
+        <v>33259.150439617115</v>
+      </c>
+      <c r="O12">
+        <v>2.2294810670239174</v>
+      </c>
+      <c r="P12">
+        <v>35212.785168690702</v>
+      </c>
+      <c r="Q12">
+        <v>2.1564661897612516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -868,33 +1085,51 @@
         <v>4</v>
       </c>
       <c r="D13">
+        <f t="shared" si="0"/>
+        <v>11559.087824836539</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.34712149790325747</v>
+      </c>
+      <c r="F13">
         <v>526.97608976709967</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>0.2512453239780591</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>634.27521825916892</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>0.2887839669586893</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>851.13414114943487</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>0.36003179248180056</v>
       </c>
-      <c r="K13">
-        <f>AVERAGE(D13,F13,H13)</f>
-        <v>670.79514972523441</v>
-      </c>
       <c r="L13">
-        <f>AVERAGE(E13,G13,I13)</f>
-        <v>0.3000203611395163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>851.13414114943487</v>
+      </c>
+      <c r="M13">
+        <v>0.36003179248180056</v>
+      </c>
+      <c r="N13">
+        <v>34665.164326510683</v>
+      </c>
+      <c r="O13">
+        <v>0.38529190947767328</v>
+      </c>
+      <c r="P13">
+        <v>31825.843032183413</v>
+      </c>
+      <c r="Q13">
+        <v>0.43734420204152186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -905,33 +1140,51 @@
         <v>4</v>
       </c>
       <c r="D14">
+        <f t="shared" si="0"/>
+        <v>13314.375898324448</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1.2062904148851847</v>
+      </c>
+      <c r="F14">
         <v>492.06593127842194</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>0.56054804511474066</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>639.52682582569344</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>0.70520135912029858</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>908.33399521295416</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>1.480207648836904</v>
       </c>
-      <c r="K14">
-        <f>AVERAGE(D14,F14,H14)</f>
-        <v>679.9755841056899</v>
-      </c>
       <c r="L14">
-        <f>AVERAGE(E14,G14,I14)</f>
-        <v>0.91531901769064772</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>908.33399521295416</v>
+      </c>
+      <c r="M14">
+        <v>1.480207648836904</v>
+      </c>
+      <c r="N14">
+        <v>38924.675780677026</v>
+      </c>
+      <c r="O14">
+        <v>1.5189650553067704</v>
+      </c>
+      <c r="P14">
+        <v>38013.318861739644</v>
+      </c>
+      <c r="Q14">
+        <v>1.4926127320954903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -942,33 +1195,51 @@
         <v>3</v>
       </c>
       <c r="D15">
+        <f t="shared" si="0"/>
+        <v>17728.890735655183</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.7508660664112166</v>
+      </c>
+      <c r="F15">
         <v>467.60637210112407</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>0.71362077413032865</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>793.37442608732044</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>0.9553309121191792</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>1181.7093893068561</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>2.1780263509086937</v>
       </c>
-      <c r="K15">
-        <f>AVERAGE(D15,F15,H15)</f>
-        <v>814.23006249843365</v>
-      </c>
       <c r="L15">
-        <f>AVERAGE(E15,G15,I15)</f>
-        <v>1.2823260123860671</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>1181.7093893068561</v>
+      </c>
+      <c r="M15">
+        <v>2.1780263509086937</v>
+      </c>
+      <c r="N15">
+        <v>50666.034731538261</v>
+      </c>
+      <c r="O15">
+        <v>2.2789081470317356</v>
+      </c>
+      <c r="P15">
+        <v>52082.910105590672</v>
+      </c>
+      <c r="Q15">
+        <v>2.2012838633686687</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -979,33 +1250,51 @@
         <v>3</v>
       </c>
       <c r="D16">
+        <f t="shared" si="0"/>
+        <v>19023.321903445274</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.35652145307080035</v>
+      </c>
+      <c r="F16">
         <v>652.68153042853896</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>0.25756268759010242</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>978.0946592782866</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>0.29790021661658872</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>1258.3700327443835</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>0.37384130220112777</v>
       </c>
-      <c r="K16">
-        <f>AVERAGE(D16,F16,H16)</f>
-        <v>963.04874081706964</v>
-      </c>
       <c r="L16">
-        <f>AVERAGE(E16,G16,I16)</f>
-        <v>0.30976806880260632</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>1258.3700327443835</v>
+      </c>
+      <c r="M16">
+        <v>0.37384130220112777</v>
+      </c>
+      <c r="N16">
+        <v>55519.929640488743</v>
+      </c>
+      <c r="O16">
+        <v>0.39422609597252384</v>
+      </c>
+      <c r="P16">
+        <v>54472.485524987307</v>
+      </c>
+      <c r="Q16">
+        <v>0.44175711384333177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1016,33 +1305,51 @@
         <v>2</v>
       </c>
       <c r="D17">
+        <f t="shared" si="0"/>
+        <v>20329.18053833739</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.2476870156729876</v>
+      </c>
+      <c r="F17">
         <v>727.93506066158534</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>0.58747747747747758</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>1035.2782217413321</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>0.75267267267267279</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>1322.61535364938</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>1.5158917835671339</v>
       </c>
-      <c r="K17">
-        <f>AVERAGE(D17,F17,H17)</f>
-        <v>1028.6095453507658</v>
-      </c>
       <c r="L17">
-        <f>AVERAGE(E17,G17,I17)</f>
-        <v>0.95201397790576137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>1322.61535364938</v>
+      </c>
+      <c r="M17">
+        <v>1.5158917835671339</v>
+      </c>
+      <c r="N17">
+        <v>59520.360438023716</v>
+      </c>
+      <c r="O17">
+        <v>1.5833667334669339</v>
+      </c>
+      <c r="P17">
+        <v>58046.278802298948</v>
+      </c>
+      <c r="Q17">
+        <v>1.530821643286574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1053,33 +1360,51 @@
         <v>3</v>
       </c>
       <c r="D18">
+        <f t="shared" si="0"/>
+        <v>20329.18053833739</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1.1222439105772439</v>
+      </c>
+      <c r="F18">
         <v>727.93506066158534</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>0.50827827827827854</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>1035.2782217413321</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>0.68518518518518523</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>1322.61535364938</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>1.3569939879759514</v>
       </c>
-      <c r="K18">
-        <f>AVERAGE(D18,F18,H18)</f>
-        <v>1028.6095453507658</v>
-      </c>
       <c r="L18">
-        <f>AVERAGE(E18,G18,I18)</f>
-        <v>0.85015248381313846</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>1322.61535364938</v>
+      </c>
+      <c r="M18">
+        <v>1.3569939879759514</v>
+      </c>
+      <c r="N18">
+        <v>59520.360438023716</v>
+      </c>
+      <c r="O18">
+        <v>1.4274148296593188</v>
+      </c>
+      <c r="P18">
+        <v>58046.278802298948</v>
+      </c>
+      <c r="Q18">
+        <v>1.3985971943887776</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1090,33 +1415,51 @@
         <v>4</v>
       </c>
       <c r="D19">
+        <f t="shared" si="0"/>
+        <v>20329.18053833739</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1.1029431769779132</v>
+      </c>
+      <c r="F19">
         <v>727.93506066158534</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>0.49509509509509497</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>1035.2782217413321</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>0.68116116116116154</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>1322.61535364938</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>1.346432865731463</v>
       </c>
-      <c r="K19">
-        <f>AVERAGE(D19,F19,H19)</f>
-        <v>1028.6095453507658</v>
-      </c>
       <c r="L19">
-        <f>AVERAGE(E19,G19,I19)</f>
-        <v>0.84089637399590655</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>1322.61535364938</v>
+      </c>
+      <c r="M19">
+        <v>1.346432865731463</v>
+      </c>
+      <c r="N19">
+        <v>59520.360438023716</v>
+      </c>
+      <c r="O19">
+        <v>1.3770140280561125</v>
+      </c>
+      <c r="P19">
+        <v>58046.278802298948</v>
+      </c>
+      <c r="Q19">
+        <v>1.3715230460921846</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1127,33 +1470,51 @@
         <v>3</v>
       </c>
       <c r="D20">
+        <f t="shared" si="0"/>
+        <v>22287.769557254225</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.35823232847584524</v>
+      </c>
+      <c r="F20">
         <v>758.25712284582983</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>0.25446076759312625</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>1121.114201621358</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>0.29903854517916639</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>1424.9646779604038</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>0.37637274075347626</v>
       </c>
-      <c r="K20">
-        <f>AVERAGE(D20,F20,H20)</f>
-        <v>1101.4453341425306</v>
-      </c>
       <c r="L20">
-        <f>AVERAGE(E20,G20,I20)</f>
-        <v>0.3099573511752563</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>1424.9646779604038</v>
+      </c>
+      <c r="M20">
+        <v>0.37637274075347626</v>
+      </c>
+      <c r="N20">
+        <v>65493.094347054408</v>
+      </c>
+      <c r="O20">
+        <v>0.39929707388969593</v>
+      </c>
+      <c r="P20">
+        <v>63504.222316082938</v>
+      </c>
+      <c r="Q20">
+        <v>0.44385210268613001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1164,33 +1525,51 @@
         <v>2</v>
       </c>
       <c r="D21">
+        <f t="shared" si="0"/>
+        <v>22865.238025774928</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.48033537090050488</v>
+      </c>
+      <c r="F21">
         <v>755.8746336303044</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>0.32316294104157328</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>1125.1830158339551</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>0.36235533330969033</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>1483.6422519037997</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>0.5224641787420059</v>
       </c>
-      <c r="K21">
-        <f>AVERAGE(D21,F21,H21)</f>
-        <v>1121.5666337893531</v>
-      </c>
       <c r="L21">
-        <f>AVERAGE(E21,G21,I21)</f>
-        <v>0.40266081769775647</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>1483.6422519037997</v>
+      </c>
+      <c r="M21">
+        <v>0.5224641787420059</v>
+      </c>
+      <c r="N21">
+        <v>66693.935237298763</v>
+      </c>
+      <c r="O21">
+        <v>0.56080110011683548</v>
+      </c>
+      <c r="P21">
+        <v>65649.15076407895</v>
+      </c>
+      <c r="Q21">
+        <v>0.59076449345091842</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1201,33 +1580,51 @@
         <v>3</v>
       </c>
       <c r="D22">
+        <f t="shared" si="0"/>
+        <v>25843.311407130299</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0.35248382108069859</v>
+      </c>
+      <c r="F22">
         <v>804.03662206436309</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>0.25178275200896227</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>1233.6209782542392</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>0.29346368473417839</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>1629.6474128016582</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>0.36602040271324049</v>
       </c>
-      <c r="K22">
-        <f>AVERAGE(D22,F22,H22)</f>
-        <v>1222.4350043734203</v>
-      </c>
       <c r="L22">
-        <f>AVERAGE(E22,G22,I22)</f>
-        <v>0.30375561315212707</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1629.6474128016582</v>
+      </c>
+      <c r="M22">
+        <v>0.36602040271324049</v>
+      </c>
+      <c r="N22">
+        <v>75927.242978167429</v>
+      </c>
+      <c r="O22">
+        <v>0.39859365314852996</v>
+      </c>
+      <c r="P22">
+        <v>73835.673038692432</v>
+      </c>
+      <c r="Q22">
+        <v>0.43902203116603961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1238,33 +1635,51 @@
         <v>2</v>
       </c>
       <c r="D23">
+        <f t="shared" si="0"/>
+        <v>25891.526311212805</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.4784053856489221</v>
+      </c>
+      <c r="F23">
         <v>853.75409088145648</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>0.32703461493199726</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>1284.7772451911646</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>0.35981153081091333</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>1673.1811482106352</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>0.51680561557351978</v>
       </c>
-      <c r="K23">
-        <f>AVERAGE(D23,F23,H23)</f>
-        <v>1270.5708280944189</v>
-      </c>
       <c r="L23">
-        <f>AVERAGE(E23,G23,I23)</f>
-        <v>0.40121725377214346</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1673.1811482106352</v>
+      </c>
+      <c r="M23">
+        <v>0.51680561557351978</v>
+      </c>
+      <c r="N23">
+        <v>76075.176415321068</v>
+      </c>
+      <c r="O23">
+        <v>0.55519806957570872</v>
+      </c>
+      <c r="P23">
+        <v>73789.087819461885</v>
+      </c>
+      <c r="Q23">
+        <v>0.59477686742787417</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1275,33 +1690,51 @@
         <v>3</v>
       </c>
       <c r="D24">
+        <f t="shared" si="0"/>
+        <v>29675.135304775496</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.94394766510101036</v>
+      </c>
+      <c r="F24">
         <v>872.1100408080024</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>0.40362022119321861</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>1356.2113034767751</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>0.5512860491623478</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>1862.3825665054849</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>1.1279753065467355</v>
       </c>
-      <c r="K24">
-        <f>AVERAGE(D24,F24,H24)</f>
-        <v>1363.5679702634206</v>
-      </c>
       <c r="L24">
-        <f>AVERAGE(E24,G24,I24)</f>
-        <v>0.69429385896743401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>1862.3825665054849</v>
+      </c>
+      <c r="M24">
+        <v>1.1279753065467355</v>
+      </c>
+      <c r="N24">
+        <v>86147.673376890874</v>
+      </c>
+      <c r="O24">
+        <v>1.1914283101264378</v>
+      </c>
+      <c r="P24">
+        <v>85950.051974466347</v>
+      </c>
+      <c r="Q24">
+        <v>1.2614007970305878</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1312,33 +1745,51 @@
         <v>3</v>
       </c>
       <c r="D25">
+        <f t="shared" si="0"/>
+        <v>30025.841808697489</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.94127455597162379</v>
+      </c>
+      <c r="F25">
         <v>883.48111707483201</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>0.42017872615853608</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>1381.8244736338418</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>0.5449529189136969</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>1886.5949461700145</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>1.1240322792284476</v>
       </c>
-      <c r="K25">
-        <f>AVERAGE(D25,F25,H25)</f>
-        <v>1383.9668456262295</v>
-      </c>
       <c r="L25">
-        <f>AVERAGE(E25,G25,I25)</f>
-        <v>0.69638797476689351</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>1886.5949461700145</v>
+      </c>
+      <c r="M25">
+        <v>1.1240322792284476</v>
+      </c>
+      <c r="N25">
+        <v>86985.237381900457</v>
+      </c>
+      <c r="O25">
+        <v>1.1667695974863204</v>
+      </c>
+      <c r="P25">
+        <v>87131.317987235801</v>
+      </c>
+      <c r="Q25">
+        <v>1.2676815348142949</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1349,33 +1800,51 @@
         <v>2</v>
       </c>
       <c r="D26">
+        <f t="shared" si="0"/>
+        <v>29459.509636795923</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0.47670818849239721</v>
+      </c>
+      <c r="F26">
         <v>925.96487234202709</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>0.34659403136492356</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>1400.7612260397605</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>0.35787933711809133</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>1855.4934836797142</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>0.51440170315793854</v>
       </c>
-      <c r="K26">
-        <f>AVERAGE(D26,F26,H26)</f>
-        <v>1394.0731940205005</v>
-      </c>
       <c r="L26">
-        <f>AVERAGE(E26,G26,I26)</f>
-        <v>0.40629169054698444</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>1855.4934836797142</v>
+      </c>
+      <c r="M26">
+        <v>0.51440170315793854</v>
+      </c>
+      <c r="N26">
+        <v>85800.983075921802</v>
+      </c>
+      <c r="O26">
+        <v>0.54215723938442073</v>
+      </c>
+      <c r="P26">
+        <v>84918.361679112539</v>
+      </c>
+      <c r="Q26">
+        <v>0.58481511677107101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1386,33 +1855,51 @@
         <v>3</v>
       </c>
       <c r="D27">
+        <f t="shared" si="0"/>
+        <v>32372.773927569902</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0.92949257947798924</v>
+      </c>
+      <c r="F27">
         <v>941.14369116827777</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>0.39741133975481613</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>1465.6534729372258</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>0.55584958539861973</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>2017.7953148365548</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>1.1108358999763077</v>
       </c>
-      <c r="K27">
-        <f>AVERAGE(D27,F27,H27)</f>
-        <v>1474.8641596473528</v>
-      </c>
       <c r="L27">
-        <f>AVERAGE(E27,G27,I27)</f>
-        <v>0.68803227504324782</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>2017.7953148365548</v>
+      </c>
+      <c r="M27">
+        <v>1.1108358999763077</v>
+      </c>
+      <c r="N27">
+        <v>94293.105776296681</v>
+      </c>
+      <c r="O27">
+        <v>1.1515607495112361</v>
+      </c>
+      <c r="P27">
+        <v>93501.149995344138</v>
+      </c>
+      <c r="Q27">
+        <v>1.2504620022506481</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1423,33 +1910,51 @@
         <v>2</v>
       </c>
       <c r="D28">
+        <f t="shared" si="0"/>
+        <v>33513.081821862928</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1.0702765361870472</v>
+      </c>
+      <c r="F28">
         <v>994.49769731373181</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>0.53439458524414363</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>1543.0788985217866</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>0.61555877607940723</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>2106.2077836825033</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>1.26494181569265</v>
       </c>
-      <c r="K28">
-        <f>AVERAGE(D28,F28,H28)</f>
-        <v>1547.9281265060072</v>
-      </c>
       <c r="L28">
-        <f>AVERAGE(E28,G28,I28)</f>
-        <v>0.80496505900540027</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>2106.2077836825033</v>
+      </c>
+      <c r="M28">
+        <v>1.26494181569265</v>
+      </c>
+      <c r="N28">
+        <v>97626.269809673744</v>
+      </c>
+      <c r="O28">
+        <v>1.3288667158263434</v>
+      </c>
+      <c r="P28">
+        <v>96702.228958303283</v>
+      </c>
+      <c r="Q28">
+        <v>1.4129555085870877</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1460,33 +1965,51 @@
         <v>2</v>
       </c>
       <c r="D29">
+        <f t="shared" si="0"/>
+        <v>33944.66977596104</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1.068333747654858</v>
+      </c>
+      <c r="F29">
         <v>998.99213449491504</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>0.48298209215986021</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>1551.4774773798092</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>0.61023085111101227</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>2105.6876838284488</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>1.2754461280390232</v>
       </c>
-      <c r="K29">
-        <f>AVERAGE(D29,F29,H29)</f>
-        <v>1552.0524319010576</v>
-      </c>
       <c r="L29">
-        <f>AVERAGE(E29,G29,I29)</f>
-        <v>0.78955302376996528</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>2105.6876838284488</v>
+      </c>
+      <c r="M29">
+        <v>1.2754461280390232</v>
+      </c>
+      <c r="N29">
+        <v>98336.025950851676</v>
+      </c>
+      <c r="O29">
+        <v>1.3511740102241798</v>
+      </c>
+      <c r="P29">
+        <v>98570.147725382936</v>
+      </c>
+      <c r="Q29">
+        <v>1.4147232763560489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1497,33 +2020,51 @@
         <v>2</v>
       </c>
       <c r="D30">
+        <f t="shared" si="0"/>
+        <v>36492.979814306738</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1.0657582486689334</v>
+      </c>
+      <c r="F30">
         <v>1058.7734645738444</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>0.47280730954212058</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>1655.3894969269697</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>0.62797742292310776</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>2249.9350061503969</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>1.2684252670042522</v>
       </c>
-      <c r="K30">
-        <f>AVERAGE(D30,F30,H30)</f>
-        <v>1654.6993225504036</v>
-      </c>
       <c r="L30">
-        <f>AVERAGE(E30,G30,I30)</f>
-        <v>0.78973666648982688</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>2249.9350061503969</v>
+      </c>
+      <c r="M30">
+        <v>1.2684252670042522</v>
+      </c>
+      <c r="N30">
+        <v>106103.04890396664</v>
+      </c>
+      <c r="O30">
+        <v>1.3462557876098413</v>
+      </c>
+      <c r="P30">
+        <v>105640.79700807217</v>
+      </c>
+      <c r="Q30">
+        <v>1.4106584379300273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1534,33 +2075,51 @@
         <v>3</v>
       </c>
       <c r="D31">
+        <f t="shared" si="0"/>
+        <v>38250.345580537833</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0.45198105135922767</v>
+      </c>
+      <c r="F31">
         <v>1022.5026041217825</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>0.27546713926098598</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>1672.7650129408844</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>0.33066657721572779</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>2357.7372753430313</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>0.50248524902305935</v>
       </c>
-      <c r="K31">
-        <f>AVERAGE(D31,F31,H31)</f>
-        <v>1684.3349641352327</v>
-      </c>
       <c r="L31">
-        <f>AVERAGE(E31,G31,I31)</f>
-        <v>0.36953965516659104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>2357.7372753430313</v>
+      </c>
+      <c r="M31">
+        <v>0.50248524902305935</v>
+      </c>
+      <c r="N31">
+        <v>111393.96044173608</v>
+      </c>
+      <c r="O31">
+        <v>0.52138367496814053</v>
+      </c>
+      <c r="P31">
+        <v>110697.37087374218</v>
+      </c>
+      <c r="Q31">
+        <v>0.57939841866439257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1571,33 +2130,51 @@
         <v>3</v>
       </c>
       <c r="D32">
+        <f t="shared" si="0"/>
+        <v>37998.030553183627</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0.44151600271302954</v>
+      </c>
+      <c r="F32">
         <v>1018.4074122469787</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>0.27372256308202875</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>1676.7608699707105</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>0.33439876438600064</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>2371.1022162658946</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>0.48301507098016044</v>
       </c>
-      <c r="K32">
-        <f>AVERAGE(D32,F32,H32)</f>
-        <v>1688.7568328278612</v>
-      </c>
       <c r="L32">
-        <f>AVERAGE(E32,G32,I32)</f>
-        <v>0.36371213281606329</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>2371.1022162658946</v>
+      </c>
+      <c r="M32">
+        <v>0.48301507098016044</v>
+      </c>
+      <c r="N32">
+        <v>111090.43456428373</v>
+      </c>
+      <c r="O32">
+        <v>0.50600561676387967</v>
+      </c>
+      <c r="P32">
+        <v>109460.37604006857</v>
+      </c>
+      <c r="Q32">
+        <v>0.56893893008594687</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1608,33 +2185,51 @@
         <v>2</v>
       </c>
       <c r="D33">
+        <f t="shared" si="0"/>
+        <v>39280.900122207044</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1.344191532580842</v>
+      </c>
+      <c r="F33">
         <v>1030.141672537603</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>0.58898008391814582</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>1671.8851457628343</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>0.78449632008902603</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>2369.0601748217396</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>1.6408700641815788</v>
       </c>
-      <c r="K33">
-        <f>AVERAGE(D33,F33,H33)</f>
-        <v>1690.3623310407256</v>
-      </c>
       <c r="L33">
-        <f>AVERAGE(E33,G33,I33)</f>
-        <v>1.0047821560629169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>2369.0601748217396</v>
+      </c>
+      <c r="M33">
+        <v>1.6408700641815788</v>
+      </c>
+      <c r="N33">
+        <v>112989.46189790119</v>
+      </c>
+      <c r="O33">
+        <v>1.7407289462330238</v>
+      </c>
+      <c r="P33">
+        <v>115255.79166739719</v>
+      </c>
+      <c r="Q33">
+        <v>1.6692037168816976</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1645,33 +2240,51 @@
         <v>3</v>
       </c>
       <c r="D34">
+        <f t="shared" si="0"/>
+        <v>38337.360319472537</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0.45095045115578847</v>
+      </c>
+      <c r="F34">
         <v>1038.3696785231741</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>0.3089369415133113</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>1685.166358246332</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>0.32883918112344518</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>2382.6703409119882</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>0.49438398290113633</v>
       </c>
-      <c r="K34">
-        <f>AVERAGE(D34,F34,H34)</f>
-        <v>1702.068792560498</v>
-      </c>
       <c r="L34">
-        <f>AVERAGE(E34,G34,I34)</f>
-        <v>0.37738670184596423</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>2382.6703409119882</v>
+      </c>
+      <c r="M34">
+        <v>0.49438398290113633</v>
+      </c>
+      <c r="N34">
+        <v>111651.75855936263</v>
+      </c>
+      <c r="O34">
+        <v>0.50526875874752764</v>
+      </c>
+      <c r="P34">
+        <v>110883.52663887911</v>
+      </c>
+      <c r="Q34">
+        <v>0.5738898597481743</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1682,33 +2295,51 @@
         <v>2</v>
       </c>
       <c r="D35">
+        <f t="shared" si="0"/>
+        <v>40032.940809645748</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1.8655735288739332</v>
+      </c>
+      <c r="F35">
         <v>1076.0213463940363</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>0.74284147804857892</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>1712.2541536344029</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>1.0286812749576948</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>2375.7441918717996</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <v>2.3242183864061805</v>
       </c>
-      <c r="K35">
-        <f>AVERAGE(D35,F35,H35)</f>
-        <v>1721.3398973000797</v>
-      </c>
       <c r="L35">
-        <f>AVERAGE(E35,G35,I35)</f>
-        <v>1.3652470464708182</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>2375.7441918717996</v>
+      </c>
+      <c r="M35">
+        <v>2.3242183864061805</v>
+      </c>
+      <c r="N35">
+        <v>115073.55774329988</v>
+      </c>
+      <c r="O35">
+        <v>2.4227191628410489</v>
+      </c>
+      <c r="P35">
+        <v>117584.32323080255</v>
+      </c>
+      <c r="Q35">
+        <v>2.3507624845839139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1719,33 +2350,51 @@
         <v>2</v>
       </c>
       <c r="D36">
+        <f t="shared" si="0"/>
+        <v>41782.199551207697</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0.57568667012635366</v>
+      </c>
+      <c r="F36">
         <v>1153.6735939205053</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>0.37395130231940482</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>1839.4047612309887</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>0.3943350117268864</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>2548.0585276976303</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>0.64302896606768711</v>
       </c>
-      <c r="K36">
-        <f>AVERAGE(D36,F36,H36)</f>
-        <v>1847.045627616375</v>
-      </c>
       <c r="L36">
-        <f>AVERAGE(E36,G36,I36)</f>
-        <v>0.47043842670465946</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>2548.0585276976303</v>
+      </c>
+      <c r="M36">
+        <v>0.64302896606768711</v>
+      </c>
+      <c r="N36">
+        <v>121785.074474707</v>
+      </c>
+      <c r="O36">
+        <v>0.67336979774969075</v>
+      </c>
+      <c r="P36">
+        <v>120818.92742199243</v>
+      </c>
+      <c r="Q36">
+        <v>0.72640597682676522</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1756,33 +2405,51 @@
         <v>2</v>
       </c>
       <c r="D37">
+        <f t="shared" si="0"/>
+        <v>41835.834085508672</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>0.57636799163509045</v>
+      </c>
+      <c r="F37">
         <v>1144.256873035682</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>0.34765311066146098</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>1836.9121787288016</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>0.40186947444244991</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>2565.5861274633976</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>0.65189699097982545</v>
       </c>
-      <c r="K37">
-        <f>AVERAGE(D37,F37,H37)</f>
-        <v>1848.9183930759602</v>
-      </c>
       <c r="L37">
-        <f>AVERAGE(E37,G37,I37)</f>
-        <v>0.4671398586945788</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>2565.5861274633976</v>
+      </c>
+      <c r="M37">
+        <v>0.65189699097982545</v>
+      </c>
+      <c r="N37">
+        <v>122152.33419601241</v>
+      </c>
+      <c r="O37">
+        <v>0.67285555934515706</v>
+      </c>
+      <c r="P37">
+        <v>120750.32901034835</v>
+      </c>
+      <c r="Q37">
+        <v>0.73203582340182383</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1793,35 +2460,53 @@
         <v>2</v>
       </c>
       <c r="D38">
+        <f t="shared" si="0"/>
+        <v>42127.111982702285</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0.56470642641474178</v>
+      </c>
+      <c r="F38">
         <v>1154.2686168864282</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>0.34105224466609863</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>1844.4048888288785</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>0.39081348149929301</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>2562.5533453331159</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>0.63601870347844525</v>
       </c>
-      <c r="K38">
-        <f>AVERAGE(D38,F38,H38)</f>
-        <v>1853.7422836828075</v>
-      </c>
       <c r="L38">
-        <f>AVERAGE(E38,G38,I38)</f>
-        <v>0.45596147654794561</v>
+        <v>2562.5533453331159</v>
+      </c>
+      <c r="M38">
+        <v>0.63601870347844525</v>
+      </c>
+      <c r="N38">
+        <v>122536.75684732094</v>
+      </c>
+      <c r="O38">
+        <v>0.66566464392673297</v>
+      </c>
+      <c r="P38">
+        <v>122102.13485251126</v>
+      </c>
+      <c r="Q38">
+        <v>0.71867078143943552</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:L38">
-    <sortCondition ref="K3:K38"/>
+  <sortState ref="A3:N38">
+    <sortCondition ref="M3:M38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
